--- a/Clean-300.xlsx
+++ b/Clean-300.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,10 +405,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.226787400772878E-07</v>
+        <v>2.195414146263607E-07</v>
       </c>
       <c r="D2">
-        <v>1.275855199371925E-05</v>
+        <v>1.257879648642215E-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -419,10 +419,10 @@
         <v>0.009999999776482582</v>
       </c>
       <c r="C3">
-        <v>1.834300179405214E-07</v>
+        <v>1.789089139709773E-07</v>
       </c>
       <c r="D3">
-        <v>1.050976586400085E-05</v>
+        <v>1.025072568780613E-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -433,10 +433,10 @@
         <v>0.01999999955296516</v>
       </c>
       <c r="C4">
-        <v>1.456364873265819E-07</v>
+        <v>1.400371950582266E-07</v>
       </c>
       <c r="D4">
-        <v>8.344356066923642E-06</v>
+        <v>8.023540251686653E-06</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -447,10 +447,10 @@
         <v>0.0350000001490116</v>
       </c>
       <c r="C5">
-        <v>9.1707347903364E-08</v>
+        <v>8.50453849097078E-08</v>
       </c>
       <c r="D5">
-        <v>5.254443985200676E-06</v>
+        <v>4.872741622391836E-06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -461,10 +461,10 @@
         <v>0.05750000104308128</v>
       </c>
       <c r="C6">
-        <v>1.718010168090707E-08</v>
+        <v>1.003553512491338E-08</v>
       </c>
       <c r="D6">
-        <v>9.843473179215865E-07</v>
+        <v>5.749938078128303E-07</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -475,10 +475,10 @@
         <v>0.09125000238418579</v>
       </c>
       <c r="C7">
-        <v>-7.986240156882853E-08</v>
+        <v>-8.563175969659585E-08</v>
       </c>
       <c r="D7">
-        <v>-4.575778551672839E-06</v>
+        <v>-4.906338422893405E-06</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -489,10 +489,10 @@
         <v>0.1412499994039536</v>
       </c>
       <c r="C8">
-        <v>-1.896020133436297E-07</v>
+        <v>-1.899025861361965E-07</v>
       </c>
       <c r="D8">
-        <v>-1.08633951517731E-05</v>
+        <v>-1.088061670422364E-05</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -503,10 +503,10 @@
         <v>0.1912499964237213</v>
       </c>
       <c r="C9">
-        <v>-2.564716828560958E-07</v>
+        <v>-2.490624753681038E-07</v>
       </c>
       <c r="D9">
-        <v>-1.469474499227204E-05</v>
+        <v>-1.427022867367337E-05</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -517,10 +517,10 @@
         <v>0.2412499934434891</v>
       </c>
       <c r="C10">
-        <v>-2.775319232290125E-07</v>
+        <v>-2.624420392912438E-07</v>
       </c>
       <c r="D10">
-        <v>-1.590140788117119E-05</v>
+        <v>-1.503682121819479E-05</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -531,10 +531,10 @@
         <v>0.2912499904632568</v>
       </c>
       <c r="C11">
-        <v>-2.498723514177906E-07</v>
+        <v>-2.291972668229132E-07</v>
       </c>
       <c r="D11">
-        <v>-1.431663115324916E-05</v>
+        <v>-1.313203606488673E-05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -545,10 +545,10 @@
         <v>0.3412500023841857</v>
       </c>
       <c r="C12">
-        <v>-1.702344490819678E-07</v>
+        <v>-1.485317940180548E-07</v>
       </c>
       <c r="D12">
-        <v>-9.753715460131467E-06</v>
+        <v>-8.510244920741027E-06</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -559,10 +559,10 @@
         <v>0.3912500143051147</v>
       </c>
       <c r="C13">
-        <v>-3.49500229122196E-08</v>
+        <v>-1.920471668932083E-08</v>
       </c>
       <c r="D13">
-        <v>-2.00248880675571E-06</v>
+        <v>-1.100349213042539E-06</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -573,10 +573,10 @@
         <v>0.4412499964237213</v>
       </c>
       <c r="C14">
-        <v>1.608725919487013E-07</v>
+        <v>1.598105820142803E-07</v>
       </c>
       <c r="D14">
-        <v>9.21732055799085E-06</v>
+        <v>9.156471870947566E-06</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -587,10 +587,10 @@
         <v>0.4912500083446503</v>
       </c>
       <c r="C15">
-        <v>4.370195575292574E-07</v>
+        <v>3.905936123154048E-07</v>
       </c>
       <c r="D15">
-        <v>2.503937621110113E-05</v>
+        <v>2.237936549044179E-05</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -601,10 +601,10 @@
         <v>0.5412499904632568</v>
       </c>
       <c r="C16">
-        <v>7.877909657420454E-07</v>
+        <v>6.742662853412035E-07</v>
       </c>
       <c r="D16">
-        <v>4.513709747555442E-05</v>
+        <v>3.863261241801465E-05</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -615,10 +615,10 @@
         <v>0.5912500023841858</v>
       </c>
       <c r="C17">
-        <v>3.992132521234409E-06</v>
+        <v>1.021231806825609E-06</v>
       </c>
       <c r="D17">
-        <v>0.0002287323447236521</v>
+        <v>5.851227243562677E-05</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -629,10 +629,10 @@
         <v>0.6037499904632568</v>
       </c>
       <c r="C18">
-        <v>9.697505491043906E-06</v>
+        <v>1.313843123324811E-06</v>
       </c>
       <c r="D18">
-        <v>0.0005556261364417567</v>
+        <v>7.527766590879778E-05</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -643,10 +643,10 @@
         <v>0.6162499785423279</v>
       </c>
       <c r="C19">
-        <v>1.621056796368694E-05</v>
+        <v>1.636489592855579E-06</v>
       </c>
       <c r="D19">
-        <v>0.0009287971278292429</v>
+        <v>9.376394688770708E-05</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -657,10 +657,10 @@
         <v>0.6349999904632568</v>
       </c>
       <c r="C20">
-        <v>2.686782628024071E-05</v>
+        <v>2.163845125577497E-06</v>
       </c>
       <c r="D20">
-        <v>0.00153941305054847</v>
+        <v>0.0001239791932155462</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -671,10 +671,164 @@
         <v>0.6631249785423279</v>
       </c>
       <c r="C21">
-        <v>4.46952899523941E-05</v>
+        <v>3.050725321139406E-06</v>
       </c>
       <c r="D21">
-        <v>0.002560851478385656</v>
+        <v>0.0001747936853549807</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.7053124904632568</v>
+      </c>
+      <c r="C22">
+        <v>4.59660970389018E-06</v>
+      </c>
+      <c r="D22">
+        <v>0.0002633663361017864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.7553125023841859</v>
+      </c>
+      <c r="C23">
+        <v>6.760585568449384E-06</v>
+      </c>
+      <c r="D23">
+        <v>0.0003873530201092022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.8053125143051147</v>
+      </c>
+      <c r="C24">
+        <v>9.289989128222903E-06</v>
+      </c>
+      <c r="D24">
+        <v>0.0005322771687695913</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.8553125262260437</v>
+      </c>
+      <c r="C25">
+        <v>1.21921545484854E-05</v>
+      </c>
+      <c r="D25">
+        <v>0.0006985589987994432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.905312478542328</v>
+      </c>
+      <c r="C26">
+        <v>1.546855298633319E-05</v>
+      </c>
+      <c r="D26">
+        <v>0.0008862828012913777</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.9178125262260435</v>
+      </c>
+      <c r="C27">
+        <v>1.634619353710213E-05</v>
+      </c>
+      <c r="D27">
+        <v>0.0009365679007799746</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.936562478542328</v>
+      </c>
+      <c r="C28">
+        <v>1.770599279411929E-05</v>
+      </c>
+      <c r="D28">
+        <v>0.001014478659192083</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.9646875262260435</v>
+      </c>
+      <c r="C29">
+        <v>1.984286654222638E-05</v>
+      </c>
+      <c r="D29">
+        <v>0.001136912506310921</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.9752343893051149</v>
+      </c>
+      <c r="C30">
+        <v>7.058534123349607E-06</v>
+      </c>
+      <c r="D30">
+        <v>0.0004044242148170069</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.9910547137260435</v>
+      </c>
+      <c r="C31">
+        <v>-1.204815239848637E-05</v>
+      </c>
+      <c r="D31">
+        <v>-0.0006903082833636891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1.014785170555115</v>
+      </c>
+      <c r="C32">
+        <v>-4.054644421260661E-05</v>
+      </c>
+      <c r="D32">
+        <v>-0.002323140127645001</v>
       </c>
     </row>
   </sheetData>
